--- a/src/assets/GMAndOdds.xlsx
+++ b/src/assets/GMAndOdds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="3303" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,183 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌类型：
+simple
+wild（暂不支持）
+bonus（暂不支持）
+scatter（暂不支持）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌多少连：
+1:1连
+…
+5:5连</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应的赔率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+GM指令</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+与特殊元素赔率相乘类型：
+lineCost：与线注相乘
+bet：与总赌注相乘</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>cardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>same</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,6 +208,24 @@
   </si>
   <si>
     <t>multiplyWith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>!set_grid 1 [1,1,1,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineCost</t>
+  </si>
+  <si>
+    <t>!set_grid 1 [1,1,1,1,3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +247,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,39 +574,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -416,5 +662,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>